--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H2">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I2">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J2">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N2">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O2">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P2">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q2">
-        <v>7598.011411817626</v>
+        <v>10407.27635010648</v>
       </c>
       <c r="R2">
-        <v>68382.10270635864</v>
+        <v>93665.48715095833</v>
       </c>
       <c r="S2">
-        <v>0.5686560978447666</v>
+        <v>0.6441611937149496</v>
       </c>
       <c r="T2">
-        <v>0.5686560978447667</v>
+        <v>0.6441611937149498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H3">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I3">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J3">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.03682</v>
       </c>
       <c r="O3">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P3">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q3">
-        <v>31.88744682566666</v>
+        <v>38.96229673825332</v>
       </c>
       <c r="R3">
-        <v>286.987021431</v>
+        <v>350.6606706442799</v>
       </c>
       <c r="S3">
-        <v>0.002386544333680889</v>
+        <v>0.002411581929073361</v>
       </c>
       <c r="T3">
-        <v>0.00238654433368089</v>
+        <v>0.002411581929073362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H4">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I4">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J4">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N4">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q4">
-        <v>47.59699518639999</v>
+        <v>36.71907906860088</v>
       </c>
       <c r="R4">
-        <v>428.3729566775999</v>
+        <v>330.4717116174079</v>
       </c>
       <c r="S4">
-        <v>0.003562290194739184</v>
+        <v>0.002272737362710808</v>
       </c>
       <c r="T4">
-        <v>0.003562290194739184</v>
+        <v>0.002272737362710808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H5">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I5">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J5">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N5">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q5">
-        <v>82.81142480868887</v>
+        <v>87.25917410937042</v>
       </c>
       <c r="R5">
-        <v>745.3028232781999</v>
+        <v>785.3325669843338</v>
       </c>
       <c r="S5">
-        <v>0.006197835082931121</v>
+        <v>0.005400930259365851</v>
       </c>
       <c r="T5">
-        <v>0.006197835082931123</v>
+        <v>0.005400930259365853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I6">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J6">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N6">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O6">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P6">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q6">
-        <v>2321.161397186657</v>
+        <v>2602.062251220025</v>
       </c>
       <c r="R6">
-        <v>20890.45257467991</v>
+        <v>23418.56026098023</v>
       </c>
       <c r="S6">
-        <v>0.1737221110959491</v>
+        <v>0.1610553491115234</v>
       </c>
       <c r="T6">
-        <v>0.1737221110959491</v>
+        <v>0.1610553491115235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I7">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J7">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.03682</v>
       </c>
       <c r="O7">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P7">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q7">
         <v>9.741484529946668</v>
@@ -883,10 +883,10 @@
         <v>87.67336076952002</v>
       </c>
       <c r="S7">
-        <v>0.0007290795288091621</v>
+        <v>0.000602951828342865</v>
       </c>
       <c r="T7">
-        <v>0.0007290795288091624</v>
+        <v>0.0006029518283428651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I8">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J8">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N8">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q8">
-        <v>14.540687274688</v>
+        <v>9.180627700252446</v>
       </c>
       <c r="R8">
-        <v>130.866185472192</v>
+        <v>82.62564930227201</v>
       </c>
       <c r="S8">
-        <v>0.001088265078510467</v>
+        <v>0.0005682374426798653</v>
       </c>
       <c r="T8">
-        <v>0.001088265078510467</v>
+        <v>0.0005682374426798653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I9">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J9">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N9">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q9">
-        <v>25.29855143583822</v>
+        <v>21.81683231850622</v>
       </c>
       <c r="R9">
-        <v>227.686962922544</v>
+        <v>196.351490866556</v>
       </c>
       <c r="S9">
-        <v>0.001893413257876032</v>
+        <v>0.001350358756373763</v>
       </c>
       <c r="T9">
-        <v>0.001893413257876032</v>
+        <v>0.001350358756373763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H10">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I10">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J10">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N10">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O10">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P10">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q10">
-        <v>2880.222705378717</v>
+        <v>2632.585778099925</v>
       </c>
       <c r="R10">
-        <v>25922.00434840845</v>
+        <v>23693.27200289933</v>
       </c>
       <c r="S10">
-        <v>0.2155637989720713</v>
+        <v>0.1629446110903452</v>
       </c>
       <c r="T10">
-        <v>0.2155637989720713</v>
+        <v>0.1629446110903452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H11">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I11">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J11">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.03682</v>
       </c>
       <c r="O11">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P11">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q11">
-        <v>12.08776130830667</v>
+        <v>9.855757147659999</v>
       </c>
       <c r="R11">
-        <v>108.78985177476</v>
+        <v>88.70181432894</v>
       </c>
       <c r="S11">
-        <v>0.0009046813441961187</v>
+        <v>0.0006100247630242236</v>
       </c>
       <c r="T11">
-        <v>0.0009046813441961189</v>
+        <v>0.0006100247630242237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H12">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I12">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J12">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N12">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q12">
-        <v>18.042871853344</v>
+        <v>9.288321179242665</v>
       </c>
       <c r="R12">
-        <v>162.385846680096</v>
+        <v>83.59489061318399</v>
       </c>
       <c r="S12">
-        <v>0.001350378216868365</v>
+        <v>0.0005749031597847009</v>
       </c>
       <c r="T12">
-        <v>0.001350378216868365</v>
+        <v>0.000574903159784701</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H13">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I13">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J13">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N13">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q13">
-        <v>31.39181202436355</v>
+        <v>22.07275496885633</v>
       </c>
       <c r="R13">
-        <v>282.526308219272</v>
+        <v>198.654794719707</v>
       </c>
       <c r="S13">
-        <v>0.002349449660247428</v>
+        <v>0.001366199158262056</v>
       </c>
       <c r="T13">
-        <v>0.002349449660247428</v>
+        <v>0.001366199158262056</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H14">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I14">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J14">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N14">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O14">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P14">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q14">
-        <v>282.5177228704503</v>
+        <v>265.3479599564801</v>
       </c>
       <c r="R14">
-        <v>2542.659505834052</v>
+        <v>2388.131639608321</v>
       </c>
       <c r="S14">
-        <v>0.02114440439107827</v>
+        <v>0.01642378398394735</v>
       </c>
       <c r="T14">
-        <v>0.02114440439107827</v>
+        <v>0.01642378398394735</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H15">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I15">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J15">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.03682</v>
       </c>
       <c r="O15">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P15">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q15">
-        <v>1.185674563653333</v>
+        <v>0.9933978504000002</v>
       </c>
       <c r="R15">
-        <v>10.67107107288</v>
+        <v>8.940580653600001</v>
       </c>
       <c r="S15">
-        <v>8.873914951380762E-05</v>
+        <v>6.148662951003332E-05</v>
       </c>
       <c r="T15">
-        <v>8.873914951380764E-05</v>
+        <v>6.148662951003335E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H16">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I16">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J16">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N16">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O16">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P16">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q16">
-        <v>1.769804487872</v>
+        <v>0.9362039014400002</v>
       </c>
       <c r="R16">
-        <v>15.928240390848</v>
+        <v>8.425835112960002</v>
       </c>
       <c r="S16">
-        <v>0.0001324570416485713</v>
+        <v>5.794659451951743E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001324570416485713</v>
+        <v>5.794659451951745E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H17">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I17">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J17">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N17">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O17">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P17">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q17">
-        <v>3.079186631415111</v>
+        <v>2.22479379412</v>
       </c>
       <c r="R17">
-        <v>27.712679682736</v>
+        <v>20.02314414708</v>
       </c>
       <c r="S17">
-        <v>0.0002304548071134586</v>
+        <v>0.0001377042155871347</v>
       </c>
       <c r="T17">
-        <v>0.0002304548071134587</v>
+        <v>0.0001377042155871348</v>
       </c>
     </row>
   </sheetData>
